--- a/train_results_False_1024_SVC.xlsx
+++ b/train_results_False_1024_SVC.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="4">
   <si>
     <t>y_pred</t>
   </si>
   <si>
     <t>y_test</t>
+  </si>
+  <si>
+    <t>ad</t>
+  </si>
+  <si>
+    <t>cn</t>
   </si>
 </sst>
 </file>
@@ -395,1738 +401,1738 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
+      <c r="B49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
+      <c r="B52" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>0</v>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61">
-        <v>0</v>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-      <c r="C62">
-        <v>0</v>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>0</v>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
-      <c r="C71">
-        <v>0</v>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
-      <c r="C72">
-        <v>0</v>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
-        <v>0</v>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>0</v>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>0</v>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81">
-        <v>0</v>
-      </c>
-      <c r="C81">
-        <v>0</v>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-      <c r="C87">
-        <v>1</v>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>1</v>
+      <c r="B88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89">
-        <v>1</v>
-      </c>
-      <c r="C89">
-        <v>1</v>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90">
-        <v>1</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>1</v>
+      <c r="B91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>1</v>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>1</v>
+      <c r="B94" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95">
-        <v>1</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96">
-        <v>1</v>
-      </c>
-      <c r="C96">
-        <v>1</v>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-      <c r="C97">
-        <v>1</v>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>1</v>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>1</v>
+      <c r="B99" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-      <c r="C100">
-        <v>1</v>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>1</v>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>1</v>
+      <c r="B102" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
+      <c r="B103" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
+      <c r="B104" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>1</v>
+      <c r="B105" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106">
-        <v>1</v>
-      </c>
-      <c r="C106">
-        <v>1</v>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>1</v>
+      <c r="B107" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108">
-        <v>1</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
+      <c r="B108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
+      <c r="B109" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110">
-        <v>1</v>
-      </c>
-      <c r="C110">
-        <v>1</v>
+      <c r="B110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111">
-        <v>1</v>
-      </c>
-      <c r="C111">
-        <v>1</v>
+      <c r="B111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112">
-        <v>1</v>
-      </c>
-      <c r="C112">
-        <v>1</v>
+      <c r="B112" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>1</v>
+      <c r="B113" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>1</v>
+      <c r="B114" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115">
-        <v>1</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
+      <c r="B115" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>1</v>
+      <c r="B116" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117">
-        <v>1</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
+      <c r="B117" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>1</v>
+      <c r="B118" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>1</v>
+      <c r="B119" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120">
-        <v>1</v>
-      </c>
-      <c r="C120">
-        <v>1</v>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>1</v>
+      <c r="B121" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>1</v>
+      <c r="B122" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>1</v>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-      <c r="C124">
-        <v>1</v>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125">
-        <v>1</v>
-      </c>
-      <c r="C125">
-        <v>1</v>
+      <c r="B125" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127">
-        <v>1</v>
-      </c>
-      <c r="C127">
-        <v>1</v>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
+      <c r="B128" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129">
-        <v>0</v>
-      </c>
-      <c r="C129">
-        <v>1</v>
+      <c r="B129" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>1</v>
+      <c r="B130" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
+      <c r="B131" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132">
-        <v>1</v>
-      </c>
-      <c r="C132">
-        <v>1</v>
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133">
-        <v>1</v>
-      </c>
-      <c r="C133">
-        <v>1</v>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>1</v>
+      <c r="B134" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>1</v>
+      <c r="B135" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136">
-        <v>1</v>
-      </c>
-      <c r="C136">
-        <v>1</v>
+      <c r="B136" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>1</v>
+      <c r="B137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>1</v>
+      <c r="B138" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139">
-        <v>1</v>
-      </c>
-      <c r="C139">
-        <v>1</v>
+      <c r="B139" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>1</v>
+      <c r="B140" t="s">
+        <v>2</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-      <c r="C141">
-        <v>1</v>
+      <c r="B141" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142">
-        <v>1</v>
-      </c>
-      <c r="C142">
-        <v>1</v>
+      <c r="B142" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143">
-        <v>0</v>
-      </c>
-      <c r="C143">
-        <v>1</v>
+      <c r="B143" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144">
-        <v>1</v>
-      </c>
-      <c r="C144">
-        <v>1</v>
+      <c r="B144" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145">
-        <v>1</v>
-      </c>
-      <c r="C145">
-        <v>1</v>
+      <c r="B145" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>1</v>
+      <c r="B146" t="s">
+        <v>2</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147">
-        <v>1</v>
-      </c>
-      <c r="C147">
-        <v>1</v>
+      <c r="B147" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>1</v>
+      <c r="B148" t="s">
+        <v>2</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149">
-        <v>1</v>
-      </c>
-      <c r="C149">
-        <v>1</v>
+      <c r="B149" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150">
-        <v>1</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
+      <c r="B150" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
+      <c r="B151" t="s">
+        <v>2</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>1</v>
+      <c r="B152" t="s">
+        <v>2</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153">
-        <v>0</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
+      <c r="B153" t="s">
+        <v>2</v>
+      </c>
+      <c r="C153" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154">
-        <v>1</v>
-      </c>
-      <c r="C154">
-        <v>1</v>
+      <c r="B154" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155">
-        <v>1</v>
-      </c>
-      <c r="C155">
-        <v>1</v>
+      <c r="B155" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156">
-        <v>1</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
+      <c r="B156" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157">
-        <v>0</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
+      <c r="B157" t="s">
+        <v>2</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158">
-        <v>0</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
+      <c r="B158" t="s">
+        <v>2</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159">
-        <v>1</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
+      <c r="B159" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
